--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/21/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/21/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6226226226226226</v>
+        <v>0.6780678067806781</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1719.71971971972</v>
+        <v>1202.110211021102</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08528528528528528</v>
+        <v>0.0006500650065006501</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6336336336336337</v>
+        <v>0.7417741774177418</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1501.501501501502</v>
+        <v>983.3983398339834</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>425.4254254254255</v>
+        <v>585.1485148514851</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>470.4704704704705</v>
+        <v>523.5292529252926</v>
       </c>
     </row>
   </sheetData>
